--- a/motan测试报告.xlsx
+++ b/motan测试报告.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>双方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>chat结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +92,61 @@
   <si>
     <t>失败，堆栈信息：
 com.weibo.api.motan.exception.MotanServiceException: error_message: com.weibo.api.motan.rpc.DefaultResponseFuture request timeout: serverPort=192.168.110.1:8601 requestId=1618545872734267220 interface=com.wyt.motan.api.MotanBusinessService method=processBusinessSync(long,java.util.Map) cost=30000, status: 503, error_code: 10003,r=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，异常信息：
+ThreadProtectedRequestRouter reject request: request_method=com.wyt.motan.api.MotanBusinessService.processBusinessSync request_counter=38 =38 max_thread=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，堆栈信息：
+com.weibo.api.motan.exception.MotanServiceException: error_message: process thread pool is full, reject, status: 503, error_code: 10002,r=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，堆栈信息：
+com.weibo.api.motan.exception.MotanServiceException: error_message: process thread pool is full, reject, status: 503, error_code: 10002,r=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：7321ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用线程池调用，收到请求后睡眠1秒钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用线程池调用，收到请求后睡眠40秒钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次【单台】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：8028ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：13ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：4ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,11 +204,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -479,94 +530,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/motan测试报告.xlsx
+++ b/motan测试报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>chat结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,26 @@
   </si>
   <si>
     <t>成功，耗时：4ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000次【集群】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次【集群】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：10785ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：15291ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：380ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -742,6 +762,57 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/motan测试报告.xlsx
+++ b/motan测试报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>chat结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,11 +82,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收到请求后睡眠40秒钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1次【单台】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，异常信息：
+ThreadProtectedRequestRouter reject request: request_method=com.wyt.motan.api.MotanBusinessService.processBusinessSync request_counter=38 =38 max_thread=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，堆栈信息：
+com.weibo.api.motan.exception.MotanServiceException: error_message: process thread pool is full, reject, status: 503, error_code: 10002,r=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，堆栈信息：
+com.weibo.api.motan.exception.MotanServiceException: error_message: process thread pool is full, reject, status: 503, error_code: 10002,r=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：7321ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用线程池调用，收到请求后睡眠1秒钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用线程池调用，收到请求后睡眠40秒钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次【单台】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：8028ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：13ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：4ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000次【集群】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次【集群】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：10785ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：15291ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，耗时：380ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序处理，收到请求后睡眠1秒钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序处理，收到请求后睡眠40秒钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序处理，收到请求后睡眠40秒钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,78 +178,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>失败，堆栈信息：
+com.weibo.api.motan.exception.MotanServiceException: error_message: com.weibo.api.motan.rpc.DefaultResponseFuture request timeout: serverPort=10.66.0.4:8601 requestId=1621697996358942725 interface=com.wyt.motan.api.MotanBusinessService method=processBusinessSync(long,java.util.Map) cost=30000, status: 503, error_code: 10003,r=null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败，异常信息：
-ThreadProtectedRequestRouter reject request: request_method=com.wyt.motan.api.MotanBusinessService.processBusinessSync request_counter=38 =38 max_thread=50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败，堆栈信息：
-com.weibo.api.motan.exception.MotanServiceException: error_message: process thread pool is full, reject, status: 503, error_code: 10002,r=null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，堆栈信息：
-com.weibo.api.motan.exception.MotanServiceException: error_message: process thread pool is full, reject, status: 503, error_code: 10002,r=null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，耗时：7321ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用线程池调用，收到请求后睡眠1秒钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用线程池调用，收到请求后睡眠40秒钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10次【单台】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，耗时：8028ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，耗时：13ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，耗时：4ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000次【集群】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10次【集群】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，耗时：10785ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，耗时：15291ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功，耗时：380ms</t>
+    <t>成功，client端虽然抛出异常，但是没有重试，该测试主要是针对超时的接口幂等性验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次【集群】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -583,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -594,13 +619,13 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -611,19 +636,19 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -637,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -654,10 +679,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -671,10 +696,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -685,13 +710,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -702,13 +727,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -722,10 +747,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -736,13 +761,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -753,18 +778,18 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -773,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>2</v>
@@ -781,16 +806,16 @@
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2</v>
@@ -798,19 +823,36 @@
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
